--- a/data/trans_media/Q15_1-Edad-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Edad-trans_media.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,25</t>
+          <t>1,03; 1,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,13</t>
+          <t>1,0; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,25</t>
+          <t>1,0; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,22 +759,22 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,56</t>
+          <t>1,0; 1,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,55</t>
+          <t>1,08; 1,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,2</t>
+          <t>1,04; 1,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,27</t>
+          <t>1,02; 1,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,03; 1,16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>1,03; 1,17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,18</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1,02; 1,21</t>
@@ -879,22 +879,22 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,3</t>
+          <t>1,15; 3,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,31</t>
+          <t>1,03; 1,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,14</t>
+          <t>1,02; 1,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,17</t>
+          <t>1,06; 1,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,17</t>
+          <t>1,01; 1,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,48</t>
+          <t>1,1; 2,62</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,21</t>
+          <t>1,02; 1,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,15</t>
+          <t>1,02; 1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,36</t>
+          <t>1,03; 1,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,38</t>
+          <t>1,04; 1,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,79</t>
+          <t>1,05; 1,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,15</t>
+          <t>1,01; 1,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,18</t>
+          <t>1,03; 1,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,2</t>
+          <t>1,03; 1,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,35</t>
+          <t>1,04; 1,34</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,31</t>
+          <t>1,08; 1,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,89</t>
+          <t>1,09; 1,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,34</t>
+          <t>1,0; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,48</t>
+          <t>1,19; 2,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,23</t>
+          <t>1,05; 1,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,41</t>
+          <t>1,07; 1,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1294,47 +1294,47 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,79</t>
+          <t>1,0; 1,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,34</t>
+          <t>1,16; 3,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,5</t>
+          <t>1,06; 1,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,69</t>
+          <t>1,03; 1,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,28</t>
+          <t>1,04; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,23</t>
+          <t>1,08; 2,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,38</t>
+          <t>1,04; 1,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,46</t>
+          <t>1,04; 1,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,49</t>
+          <t>1,25; 2,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,51</t>
+          <t>1,13; 1,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,95</t>
+          <t>1,2; 1,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,85</t>
+          <t>1,29; 1,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,91</t>
+          <t>1,46; 1,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,01</t>
+          <t>1,35; 1,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,68</t>
+          <t>1,27; 1,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,82</t>
+          <t>1,43; 1,81</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,21</t>
+          <t>1,08; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,32</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,47 +1579,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,53</t>
+          <t>1,14; 1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,32</t>
+          <t>1,07; 1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,38</t>
+          <t>1,15; 1,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,55</t>
+          <t>1,29; 1,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,22</t>
+          <t>1,09; 1,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,32</t>
+          <t>1,16; 1,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,24</t>
+          <t>1,12; 1,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,47</t>
+          <t>1,24; 1,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_1-Edad-trans_media.xlsx
+++ b/data/trans_media/Q15_1-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,69</t>
+          <t>1,09; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,24</t>
+          <t>1,03; 1,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,38</t>
+          <t>1,02; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,27</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,19</t>
+          <t>1,04; 1,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,26</t>
+          <t>1,02; 1,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,16</t>
+          <t>1,03; 1,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,21</t>
+          <t>1,02; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,16</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,3</t>
+          <t>1,05; 1,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,12</t>
+          <t>1,03; 1,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,19</t>
+          <t>1,05; 1,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,16</t>
+          <t>1,01; 1,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,24</t>
+          <t>1,02; 1,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,13</t>
+          <t>1,02; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,14</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,41</t>
+          <t>1,03; 1,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,4</t>
+          <t>1,04; 1,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,17</t>
+          <t>1,03; 1,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,22</t>
+          <t>1,02; 1,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,33</t>
+          <t>1,07; 1,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,85</t>
+          <t>1,1; 1,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,35</t>
+          <t>1,0; 1,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,44</t>
+          <t>1,07; 1,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,74</t>
+          <t>1,0; 1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,93</t>
+          <t>1,16; 3,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,45</t>
+          <t>1,06; 1,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,6</t>
+          <t>1,04; 1,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,42</t>
+          <t>1,08; 2,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,34</t>
+          <t>1,04; 1,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,52</t>
+          <t>1,05; 1,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,66</t>
+          <t>1,27; 2,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,54</t>
+          <t>1,13; 1,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,33</t>
+          <t>1,06; 1,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,02</t>
+          <t>1,27; 1,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,85</t>
+          <t>1,28; 1,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,23</t>
+          <t>1,04; 1,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,98</t>
+          <t>1,34; 1,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,68</t>
+          <t>1,27; 1,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,31</t>
+          <t>1,11; 1,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,34</t>
+          <t>1,07; 1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,41</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,39</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,08; 1,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,33</t>
+          <t>1,16; 1,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
